--- a/Character-Sheets/PCs/Anezka__Character_Sheet.xlsx
+++ b/Character-Sheets/PCs/Anezka__Character_Sheet.xlsx
@@ -2,27 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="588" windowWidth="21852" windowHeight="8940" activeTab="2"/>
+    <workbookView xWindow="612" yWindow="516" windowWidth="21852" windowHeight="10524" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Primary Statistics" sheetId="1" r:id="rId1"/>
-    <sheet name="Abilities" sheetId="3" r:id="rId2"/>
-    <sheet name="XP Tracking" sheetId="2" r:id="rId3"/>
+    <sheet name="XP Tracking" sheetId="2" r:id="rId2"/>
+    <sheet name="Abilities" sheetId="3" r:id="rId3"/>
     <sheet name="DescriptionBackground" sheetId="4" r:id="rId4"/>
     <sheet name="Inventory" sheetId="5" r:id="rId5"/>
-    <sheet name="Hidden Arts" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="214">
-  <si>
-    <t>XP Cost</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="241">
   <si>
     <t>Character Name</t>
   </si>
@@ -39,19 +35,19 @@
     <t>Hero Tier</t>
   </si>
   <si>
-    <t>Buff/Debuff Tracks</t>
+    <t>Buff Tracks</t>
   </si>
   <si>
-    <t>Mobility</t>
+    <t>Offense</t>
   </si>
   <si>
     <t>Strength</t>
   </si>
   <si>
-    <t>Finesse</t>
+    <t>Toughness</t>
   </si>
   <si>
-    <t>Toughness</t>
+    <t>Finesse</t>
   </si>
   <si>
     <t>Mind</t>
@@ -63,10 +59,25 @@
     <t>Soul</t>
   </si>
   <si>
-    <t>Level 3 - When you move as a Minor action, you can move one more square.</t>
+    <t>Level 3</t>
   </si>
   <si>
-    <t>Level 2 - If an opponent tries to strike you, they have Double Bane 9. If your foe already has a equal or stronger source of Double Bane, you may instead increase its magnitude by one level (so from Double Bane 8 to Double Bane 7).</t>
+    <t>You make attack rolls at Boon +4, and your Mental and Physical Attack increase by your Hero Tier.</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>You make attack rolls at Boon +3, and your Abilities that require Attack rolls cost 1 less HP or MP per Hero Tier. This cannot take an Ability’s cost below 1.</t>
+  </si>
+  <si>
+    <t>Injury</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>You make attack rolls at Boon +2.</t>
   </si>
   <si>
     <t>HP (Maximum)</t>
@@ -81,10 +92,16 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Level 1 - When you move as a Major action, you can move one more square.</t>
+    <t>&gt;</t>
   </si>
   <si>
-    <t>Level 0 - Normal, no changes.</t>
+    <t>Level -</t>
+  </si>
+  <si>
+    <t>Level -1</t>
+  </si>
+  <si>
+    <t>You make attack rolls at Bane -2.</t>
   </si>
   <si>
     <t>MP (Maximum)</t>
@@ -96,11 +113,16 @@
     <t>Base MP</t>
   </si>
   <si>
-    <t>Level -1 - You can no longer move as a minor action.</t>
+    <t>Level -2</t>
   </si>
   <si>
-    <t xml:space="preserve">Level -2 - Abilities that requires attack rolls used against you are made with Double Boon 2. If your foe already has an equal or stronger source of Double Boon, they may instead increase its magnitude by one (so from Double Boon 2 to Double Boon 3).
-</t>
+    <t xml:space="preserve">You make attack rolls at Bane -3, and your Abilities that require Attack rolls cost 1 more HP or MP per Hero Tier. </t>
+  </si>
+  <si>
+    <t>Level -3</t>
+  </si>
+  <si>
+    <t>You make attack rolls at Bane -4, and your Mental and Physical Attack decreases by your Hero Tier.</t>
   </si>
   <si>
     <t>Current HP</t>
@@ -109,34 +131,31 @@
     <t>Current MP</t>
   </si>
   <si>
-    <t>Level -3 - You must spend both your Minor and Major action to move one square.</t>
-  </si>
-  <si>
     <t>Damage Taken</t>
   </si>
   <si>
     <t>MP Expended</t>
   </si>
   <si>
+    <t>Defense</t>
+  </si>
+  <si>
     <t>Physical Attack</t>
   </si>
   <si>
-    <t>Class Bonus</t>
+    <t>Purchased Bonus</t>
   </si>
   <si>
-    <t>Offense</t>
+    <t>Attack rolls made against you have Bane -4, and your Mental and Physical Defense increases by your Hero Tier.</t>
   </si>
   <si>
-    <t>Level 3 - You make attack rolls at Boon 4, and if your Ability hits you do additional damage equal to your Mental or Physical Attack (whichever is higher) times your Hero Tier.</t>
+    <t>Attack rolls made against you have Bane -3, and you gain Shield equal to twice your Hero Tier at the start of your turn.</t>
   </si>
   <si>
-    <t>Magical Attack</t>
+    <t>Mental Attack</t>
   </si>
   <si>
-    <t>Level 2 - You make attack rolls at Boon 3, and your Abilities that require Attack rolls cost 1 less HP or MP per Hero Tier. This cannot take an Ability’s cost below 1.</t>
-  </si>
-  <si>
-    <t>Level 1 - You make attack rolls at Boon 2.</t>
+    <t>Attack rolls made against you have Bane -2.</t>
   </si>
   <si>
     <t>Physical Defense</t>
@@ -145,34 +164,46 @@
     <t>Base</t>
   </si>
   <si>
-    <t>Level -1 - You make attack rolls at Bane 9.</t>
+    <t xml:space="preserve">Level -1 </t>
   </si>
   <si>
-    <t>Magical Defense</t>
+    <t>Attack rolls against you have Boon +2.</t>
   </si>
   <si>
-    <t xml:space="preserve">Level -2 - You make attack rolls at Bane 8, and your Abilities that require Attack rolls cost 1 more HP or MP per Hero Tier. </t>
+    <t>Attack rolls against you have Boon +3, and any Shield you gain is halved.</t>
   </si>
   <si>
-    <t>Level -3 - You make attack rolls at Bane 7, and if your Ability hits you deal reduced damage equal to your Mental or Physical Attack (whichever is higher) per Hero Tier. This cannot reduce the damage you deal below 1.</t>
+    <t>Physical Defense Bonus:</t>
+  </si>
+  <si>
+    <t>Attack rolls against you have Boon +4, and your Mental and Physical Defense decreases by your Hero Tier.</t>
+  </si>
+  <si>
+    <t>Mental Defense</t>
+  </si>
+  <si>
+    <t>Mental Defense Bonus:</t>
+  </si>
+  <si>
+    <t>Elemental</t>
   </si>
   <si>
     <t>Initiative</t>
   </si>
   <si>
-    <t>Defense</t>
+    <t>Resist:</t>
+  </si>
+  <si>
+    <t>Weak:</t>
   </si>
   <si>
     <t>SKILLS</t>
   </si>
   <si>
-    <t>Total Skill Points:</t>
-  </si>
-  <si>
     <t>Maximum points per skill:</t>
   </si>
   <si>
-    <t>Level 3 - Attack rolls made against you have Bane 7. In addition, spell Abilities deal a reduced amount of damage equal to your Mental Defense times your Hero Tier. Physical Abilities do reduced damage equal to you your Physical Defense times your Hero Tier.</t>
+    <t>Talents:</t>
   </si>
   <si>
     <t>Skill Name</t>
@@ -190,28 +221,13 @@
     <t>Misc.</t>
   </si>
   <si>
-    <t>Level 2 - Attack rolls made against you have Bane 8, and your Mental and Physical Defense increases by your Hero Tier.</t>
-  </si>
-  <si>
     <t>Acrobatics</t>
-  </si>
-  <si>
-    <t>Level 1 - Attack rolls made against you have Bane 9.</t>
   </si>
   <si>
     <t>Animal Handling</t>
   </si>
   <si>
-    <t>Level -1 - Attack rolls against you have Boon 2.</t>
-  </si>
-  <si>
-    <t>Level -2 - Attack rolls against you have Boon 3, and your Mental and Physical Defense decreases by your Hero Tier.</t>
-  </si>
-  <si>
     <t>Athletics</t>
-  </si>
-  <si>
-    <t>Level -3 - Attack rolls against you have Boon 4. In addition, spell Abilities deal additional damage equal to your Mental Defense times your Hero Tier and Physical Abilities do additional damage equal to your Physical Defense times your Hero Tier.</t>
   </si>
   <si>
     <t>Awareness</t>
@@ -259,6 +275,9 @@
     <t>Sabotage</t>
   </si>
   <si>
+    <t>Science</t>
+  </si>
+  <si>
     <t>Stealth</t>
   </si>
   <si>
@@ -295,6 +314,33 @@
     <t>Trade (&lt;TYPE&gt;)</t>
   </si>
   <si>
+    <t>XP Cost</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type (Spell/Attack/Other)</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Targets</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
     <t>Anezka</t>
   </si>
   <si>
@@ -304,16 +350,22 @@
     <t>Monks of the Cold Royalty</t>
   </si>
   <si>
-    <t>Familiar</t>
+    <t>Dark/Ice</t>
+  </si>
+  <si>
+    <t>Sky</t>
+  </si>
+  <si>
+    <t>Academics (Astronomy)</t>
+  </si>
+  <si>
+    <t>Points spent:</t>
+  </si>
+  <si>
+    <t>unallocated:</t>
   </si>
   <si>
     <t>Music (Voice)</t>
-  </si>
-  <si>
-    <t>Flavour Skill Points spent:</t>
-  </si>
-  <si>
-    <t>Academics (astronomy)</t>
   </si>
   <si>
     <t>Benefit Type</t>
@@ -322,58 +374,165 @@
     <t>Benefit Name</t>
   </si>
   <si>
+    <t>Used XP:</t>
+  </si>
+  <si>
+    <t>Current XP:</t>
+  </si>
+  <si>
     <t>Utility</t>
+  </si>
+  <si>
+    <t>Familiar</t>
   </si>
   <si>
     <t>Asceticism</t>
   </si>
   <si>
-    <t>page for reference</t>
+    <t>Consider:</t>
   </si>
   <si>
-    <t>HB - 45</t>
+    <t>Summoning: Defender</t>
   </si>
   <si>
-    <t>HB - 44</t>
+    <t>Ability</t>
   </si>
   <si>
-    <t>Ability Name</t>
+    <r>
+      <t xml:space="preserve">Elemental Dart </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Fire)</t>
+    </r>
   </si>
   <si>
-    <t>MP Cost</t>
+    <t>Elemental Blast</t>
   </si>
   <si>
-    <t>Ability Level</t>
+    <r>
+      <t xml:space="preserve">Elemental Dart </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Dark) (via Talent)</t>
+    </r>
   </si>
   <si>
-    <t>Action</t>
+    <t>Capacity levels</t>
+  </si>
+  <si>
+    <t>Basic Scan</t>
+  </si>
+  <si>
+    <t>LevelUp 1-&gt;2</t>
+  </si>
+  <si>
+    <t>+1 HP level</t>
+  </si>
+  <si>
+    <t>Skill points</t>
+  </si>
+  <si>
+    <t>+6 Skill Points</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Advantageous Recovery</t>
+  </si>
+  <si>
+    <t>LevelUp 2-&gt;3</t>
+  </si>
+  <si>
+    <t>+1 MDef</t>
+  </si>
+  <si>
+    <t>Skillpoints</t>
+  </si>
+  <si>
+    <t>LevelUp 3-&gt;4</t>
+  </si>
+  <si>
+    <t>+1PAtk</t>
+  </si>
+  <si>
+    <t>LevelUp 4-&gt;5</t>
+  </si>
+  <si>
+    <t>+1 Soul</t>
+  </si>
+  <si>
+    <t>Talent</t>
+  </si>
+  <si>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>Superior Scanner</t>
+  </si>
+  <si>
+    <t>Eidetic Memory</t>
+  </si>
+  <si>
+    <t>LevelUp 5-&gt;6</t>
+  </si>
+  <si>
+    <t>free Ability:Mental Shield (T2)</t>
+  </si>
+  <si>
+    <t>Talent:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Elemental Specialist </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Dark)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (via Lv 6)</t>
+    </r>
+  </si>
+  <si>
+    <t>Healing Word</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Medium (OL long)</t>
   </si>
   <si>
     <t>Veil</t>
   </si>
   <si>
-    <t>AB - 13</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>2 (5 OL)</t>
-  </si>
-  <si>
     <t>Major (OL Minor)</t>
   </si>
   <si>
-    <t>Major</t>
-  </si>
-  <si>
     <t>Short</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>AB - 7</t>
   </si>
   <si>
     <r>
@@ -390,18 +549,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Elemental Dart </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Fire)</t>
-    </r>
+    <t>Medium</t>
   </si>
   <si>
     <r>
@@ -418,69 +566,161 @@
     </r>
   </si>
   <si>
-    <t>Ability</t>
+    <t>Minor</t>
   </si>
   <si>
     <t>Long</t>
   </si>
   <si>
-    <t>Healing Word</t>
+    <t>Scan improvement</t>
   </si>
   <si>
-    <t>Used XP:</t>
+    <t>Mental Shield</t>
   </si>
   <si>
-    <t>Current XP:</t>
+    <t>Reaction</t>
   </si>
   <si>
-    <t>AB - 9</t>
+    <t>MP instead of HP damage</t>
   </si>
   <si>
-    <t>Basic Scan</t>
+    <t>Trick - Chill</t>
   </si>
   <si>
-    <t>LevelUp 1-&gt;2</t>
+    <t>Trick - Mend</t>
   </si>
   <si>
-    <t>HB - 13</t>
+    <t>Trick - Shadow</t>
   </si>
   <si>
-    <t>Auxiliary Scan</t>
-  </si>
-  <si>
-    <t>1 (0C)</t>
-  </si>
-  <si>
-    <t>Minor</t>
-  </si>
-  <si>
-    <t>Influence: Winter</t>
-  </si>
-  <si>
-    <t>A Sexton's secret</t>
-  </si>
-  <si>
-    <t>Winter 2</t>
+    <t>Trick - Static</t>
   </si>
   <si>
     <t>Minor telepathy; communicate one-word-messages to people in sight</t>
   </si>
   <si>
-    <t>+5SP/+3 FlavourSP</t>
+    <t>Dread meditation</t>
+  </si>
+  <si>
+    <t>Double Boon 1 when sleeping with Dread to prevent it from growing and/or ridding oneself of Dread overnight.</t>
+  </si>
+  <si>
+    <t>Luck</t>
+  </si>
+  <si>
+    <t>Silence</t>
+  </si>
+  <si>
+    <t>Stealth enhancement</t>
+  </si>
+  <si>
+    <t>You also understand the idea of Silence as a substance. You have a well of Silence you can draw on to enhance your stealth. You have one point of Silence that regenerates after an hour. You can use it to take Boon 3 on any Stealth roll, mask the sound of your breathing completely for thirty minutes, muffle one loud sound, or some other similar effect. Alternatively, the point can be used to generate a smokey-grey substance that is something between a liquid and gas. It can be applied on any surface to leave short-term messages, which evaporate into smoke after thirty minutes. Alternatively, if applied to another pigment--such as the Greydawn Oil used in your ritual--it convey a smokey quality, as though the pigment had been partially burned.</t>
+  </si>
+  <si>
+    <t>White Ceremony</t>
+  </si>
+  <si>
+    <t>Winter 4</t>
+  </si>
+  <si>
+    <t>"When I speak it, my lips don't crisp with frost. Each time, this is surprising." This lore comes with a vague understanding of a Rite one can perform, using this, a heart aspect, and a vial of a particular shade of purple known as Byzantine Purple, you could draw one of the Silent Dead from their stupor in the Manse to serve you.</t>
+  </si>
+  <si>
+    <t>Weapon Talk</t>
+  </si>
+  <si>
+    <t>Allows the user to hear the secret language of weapons. You can ask one question to any weapons you find, and they will answer it truthfully. Once a weapon has been interrogated in this way, you cannot ask it again for 24 hours. Edged weapons (swords, axes, daggers, spears, polearms, ect.) tend to answer more intelligently than blunt weapons. (Being good at punching things doesn't make your fist count as a weapon for this.) "When our ancestors forged swords, taught the art of martial movement, spoke curses on the eve of battle - all these things share certain patterns."</t>
+  </si>
+  <si>
+    <t>Depthdrinking Ritual</t>
+  </si>
+  <si>
+    <t>a rite that requires a Lore (What are the Words?), an Idea (What Power is Present?), and an Offering: Ingredient (What will be Offered?). Offerings are consumed as part of the Rite.</t>
+  </si>
+  <si>
+    <t>Dark Vision</t>
+  </si>
+  <si>
+    <t>It has been expressed like this: 'Each Hour has its colour, but colour exists only where there is light'. You gain the ability to see in the dark. This vision is in black and white, reaches out to 30 feet, and your eyes emit a gentle glow when seeing in this way (Imposing Bane 9 on Stealth checks). You may choose to lose this vision to extinguish the glow in your eyes.</t>
+  </si>
+  <si>
+    <t>Flame Control</t>
+  </si>
+  <si>
+    <t>You learn the first words of the secret language of fire. Fire tends to not have a will of its own, so this is usually used to give demands to the flames. You can make them burn hotter, colder, increase or slow its spread, and other similar small feats of control over flame. This has no effect on magically created flames, and cannot stop the spread of a large flame for more than one round.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certaincircle ritual </t>
+  </si>
+  <si>
+    <t>It requires a Incantation, Individual, and Ingredient. The Ingredient is consumed.</t>
+  </si>
+  <si>
+    <t>1 square</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Scan</t>
+  </si>
+  <si>
+    <t>1 enemy</t>
+  </si>
+  <si>
+    <t>1 ally</t>
+  </si>
+  <si>
+    <t>Auxiliary (Scan)</t>
+  </si>
+  <si>
+    <t>Auxiliary (Terrain)</t>
+  </si>
+  <si>
+    <t>Spell (Elemental)</t>
+  </si>
+  <si>
+    <t>Blue 2</t>
+  </si>
+  <si>
+    <t>reroll unrerrolled 1d10 whenever</t>
+  </si>
+  <si>
+    <t>Initiate of Silence</t>
+  </si>
+  <si>
+    <t>Initiate of Blades</t>
+  </si>
+  <si>
+    <t>Crimson 1</t>
+  </si>
+  <si>
+    <t>Initiate of Sight</t>
+  </si>
+  <si>
+    <t>Initiate of Labour</t>
+  </si>
+  <si>
+    <t>Orange 1</t>
+  </si>
+  <si>
+    <t>Lantern 1</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Weak to </t>
+      <t xml:space="preserve">Influence: </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Inherit"/>
       </rPr>
-      <t>(Dark)</t>
+      <t>Blue</t>
     </r>
+  </si>
+  <si>
+    <t>Temptation: Revenge</t>
   </si>
   <si>
     <r>
@@ -493,8 +733,54 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>(Ice)</t>
+      <t>Ice</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dark</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Weak to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC9900"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Sky)</t>
+    </r>
+  </si>
+  <si>
+    <t>Quanitity</t>
+  </si>
+  <si>
+    <t>Money:</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Copper</t>
   </si>
   <si>
     <r>
@@ -511,16 +797,22 @@
     </r>
   </si>
   <si>
+    <t>Scroll</t>
+  </si>
+  <si>
+    <t>AB - 7</t>
+  </si>
+  <si>
     <t>Ward Fire</t>
   </si>
   <si>
-    <t>Quanitity</t>
+    <t>Ward Sky</t>
   </si>
   <si>
-    <t>Scroll</t>
+    <t>Crowns:</t>
   </si>
   <si>
-    <t>Ward Sky</t>
+    <t>Gold</t>
   </si>
   <si>
     <t>Ward Dark</t>
@@ -532,55 +824,21 @@
     <t>Ward Light</t>
   </si>
   <si>
-    <t>+1 HP level</t>
+    <r>
+      <t xml:space="preserve">Elemental Dart </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Light)</t>
+    </r>
   </si>
   <si>
-    <t>Trick - Chill</t>
-  </si>
-  <si>
-    <t>HB - 64</t>
-  </si>
-  <si>
-    <t>Trick - Mend</t>
-  </si>
-  <si>
-    <t>HB - 65</t>
-  </si>
-  <si>
-    <t>Trick - Shadow</t>
-  </si>
-  <si>
-    <t>Luck</t>
-  </si>
-  <si>
-    <t>ANY 1d10 reroll whenever</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>LevelUp 2-&gt;3</t>
-  </si>
-  <si>
-    <t>Money:</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Iron</t>
-  </si>
-  <si>
-    <t>Copper</t>
-  </si>
-  <si>
-    <t>Advantageous Recovery</t>
-  </si>
-  <si>
-    <t>Dread meditation</t>
-  </si>
-  <si>
-    <t>Double Boon 1 when sleeping with Dread to prevent it from growing and/or ridding oneself of Dread overnight.</t>
+    <t>Slime Core(Green/Red/Blue/Yerllow)</t>
   </si>
   <si>
     <t>Library access spass</t>
@@ -589,152 +847,41 @@
     <t>a small stone with a strange sigil on it; two parallel lines with a line through their centers</t>
   </si>
   <si>
-    <t>Silence</t>
-  </si>
-  <si>
-    <t>You also understand the idea of Silence as a substance. You have a well of Silence you can draw on to enhance your stealth. You have one point of Silence that regenerates after an hour. You can use it to take Boon 3 on any Stealth roll, mask the sound of your breathing completely for thirty minutes, muffle one loud sound, or some other similar effect. Alternatively, the point can be used to generate a smokey-grey substance that is something between a liquid and gas. It can be applied on any surface to leave short-term messages, which evaporate into smoke after thirty minutes. Alternatively, if applied to another pigment--such as the Greydawn Oil used in your ritual--it convey a smokey quality, as though the pigment had been partially burned.</t>
-  </si>
-  <si>
-    <t>White Ceremony</t>
-  </si>
-  <si>
-    <t>Winter 4</t>
-  </si>
-  <si>
-    <t>"When I speak it, my lips don't crisp with frost. Each time, this is surprising." This lore comes with a vague understanding of a Rite one can perform, using this, a heart aspect, and a vial of a particular shade of purple known as Byzantine Purple, you could draw one of the Silent Dead from their stupor in the Manse to serve you.</t>
-  </si>
-  <si>
-    <t>Painting</t>
+    <t>painting</t>
   </si>
   <si>
     <t>You also look down to find you have painted a picture that perfectly captures the power of the snowstorm outside as it consumes the sun. The droplets of Greydawn have perfectly formed the puffs of snow. A few drops of your blood have hit the center, forming a meek and dying sun as the Greydawn snow, scorched slightly by your first drips of Silence, swirls down from all sides to consume it. It's not a masterpiece--not quite--but it is striking, and in the right circles this could get you some non-trivial reputation, and perhaps some coin as well.</t>
   </si>
   <si>
-    <t>LevelUp 3-&gt;4</t>
+    <t>1x (2x OL)</t>
   </si>
   <si>
-    <t>+1PAtk</t>
+    <t>-</t>
   </si>
   <si>
-    <t>Allows the user to hear the secret language of weapons. You can ask one question to any weapons you find, and they will answer it truthfully. Once a weapon has been interrogated in this way, you cannot ask it again for 24 hours. Edged weapons (swords, axes, daggers, spears, polearms, ect.) tend to answer more intelligently than blunt weapons. (Being good at punching things doesn't make your fist count as a weapon for this.) "When our ancestors forged swords, taught the art of martial movement, spoke curses on the eve of battle - all these things share certain patterns."</t>
+    <t>1d10</t>
   </si>
   <si>
-    <t>Edge 2</t>
+    <t>2MP</t>
   </si>
   <si>
-    <t>A Knife's secret</t>
+    <t>2MP (5 OL)</t>
   </si>
   <si>
-    <t>Stealth enhancement</t>
+    <t>0MP (3 OL)</t>
   </si>
   <si>
-    <t>Temptation: Revenge</t>
+    <t>1MP (0 C)</t>
   </si>
   <si>
-    <t>On the White</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>Aspect</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Weapon Talk</t>
-  </si>
-  <si>
-    <t>The Victory of Crowns</t>
-  </si>
-  <si>
-    <t>Edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Watchman's Secret </t>
-  </si>
-  <si>
-    <t>Lantern 2</t>
-  </si>
-  <si>
-    <t>Dark Vision</t>
-  </si>
-  <si>
-    <t>It has been expressed like this: 'Each Hour has its colour, but colour exists only where there is light'. You gain the ability to see in the dark. This vision is in black and white, reaches out to 30 feet, and your eyes emit a gentle glow when seeing in this way (Imposing Bane 9 on Stealth checks). You may choose to lose this vision to extinguish the glow in your eyes.</t>
-  </si>
-  <si>
-    <t>Forge 2</t>
-  </si>
-  <si>
-    <t>Flame Control</t>
-  </si>
-  <si>
-    <t>You learn the first words of the secret language of fire. Fire tends to not have a will of its own, so this is usually used to give demands to the flames. You can make them burn hotter, colder, increase or slow its spread, and other similar small feats of control over flame. This has no effect on magically created flames, and cannot stop the spread of a large flame for more than one round.</t>
-  </si>
-  <si>
-    <t>Skillpoints</t>
-  </si>
-  <si>
-    <t>Trick - Static</t>
-  </si>
-  <si>
-    <t>0 3(OL)</t>
-  </si>
-  <si>
-    <t>LevelUp 4-&gt;5</t>
-  </si>
-  <si>
-    <t>+1 Soul</t>
-  </si>
-  <si>
-    <t>Capstone Power</t>
-  </si>
-  <si>
-    <t>Flight</t>
-  </si>
-  <si>
-    <t>HB - 54</t>
-  </si>
-  <si>
-    <t>A Smith's Secret</t>
-  </si>
-  <si>
-    <t>Depthdrinking Ritual</t>
-  </si>
-  <si>
-    <t>a rite that requires a Lore (What are the Words?), an Idea (What Power is Present?), and an Offering: Ingredient (What will be Offered?). Offerings are consumed as part of the Rite.</t>
-  </si>
-  <si>
-    <t>Superior Scanner</t>
-  </si>
-  <si>
-    <t>Scan improvement</t>
-  </si>
-  <si>
-    <t>HB - 30</t>
-  </si>
-  <si>
-    <t>HB - 25</t>
-  </si>
-  <si>
-    <t>HB - 46</t>
-  </si>
-  <si>
-    <t>Medium (OL long)</t>
-  </si>
-  <si>
-    <t>+1 MDef</t>
+    <t>Blue 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -745,51 +892,48 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -810,7 +954,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -828,7 +972,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -847,12 +996,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF669900"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFCC9900"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -863,8 +1006,36 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -877,20 +1048,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="44">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -988,22 +1147,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF00FF00"/>
+      <left style="hair">
+        <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF6AA84F"/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF6AA84F"/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,9 +1175,24 @@
       <right style="thin">
         <color rgb="FF00FF00"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF00FF00"/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,6 +1306,66 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF0B5394"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF0B5394"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF0B5394"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF0B5394"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF0B5394"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF0B5394"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF0B5394"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF0B5394"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF0B5394"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFCC0000"/>
       </left>
@@ -1148,13 +1386,24 @@
       <diagonal/>
     </border>
     <border>
+      <left style="dotted">
+        <color rgb="FF0B5394"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF0B5394"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin">
-        <color rgb="FFCC0000"/>
+      <right style="dotted">
+        <color rgb="FF0B5394"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
+      <bottom style="dotted">
+        <color rgb="FF0B5394"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,15 +1478,6 @@
       <left/>
       <right style="thin">
         <color rgb="FFFFD966"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF0000FF"/>
       </right>
       <top/>
       <bottom/>
@@ -1331,139 +1571,145 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1472,25 +1718,30 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFCC9900"/>
-      <color rgb="FFFFFF00"/>
-      <color rgb="FF669900"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1516,7 +1767,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4097" name="AutoShape 1" descr="https://discordapp.com/assets/d91cb297561a6bc50f8c6918d428bc61.svg"/>
+        <xdr:cNvPr id="2" name="AutoShape 1" descr="https://discordapp.com/assets/d91cb297561a6bc50f8c6918d428bc61.svg"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1524,48 +1775,6 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="198120"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4098" name="AutoShape 2" descr="https://discordapp.com/assets/d91cb297561a6bc50f8c6918d428bc61.svg"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="792480"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1595,6 +1804,48 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 1" descr="https://discordapp.com/assets/d91cb297561a6bc50f8c6918d428bc61.svg"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="AutoShape 1" descr="https://discordapp.com/assets/d91cb297561a6bc50f8c6918d428bc61.svg"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1603,6 +1854,43 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="198120"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 1" descr="https://discordapp.com/assets/d91cb297561a6bc50f8c6918d428bc61.svg"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1828,42 +2116,45 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
@@ -1882,28 +2173,28 @@
       <c r="Z1" s="7"/>
     </row>
     <row r="2" spans="1:26" ht="13.2">
-      <c r="A2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="11">
-        <v>4</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="14"/>
+      <c r="A2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="10">
+        <v>6</v>
+      </c>
+      <c r="E2" s="11">
+        <v>2</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -1921,33 +2212,33 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" spans="1:26" ht="13.8">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:26" ht="13.2">
+      <c r="A3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -1966,10 +2257,10 @@
       <c r="Z3" s="7"/>
     </row>
     <row r="4" spans="1:26" ht="13.2">
-      <c r="A4" s="19">
+      <c r="A4" s="18">
         <v>-1</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>1</v>
       </c>
       <c r="C4" s="20">
@@ -1984,14 +2275,14 @@
       <c r="F4" s="21">
         <v>1</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="22" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -2009,33 +2300,23 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" ht="13.8">
-      <c r="A5" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="1:26" ht="13.2">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="27" t="s">
+      <c r="J5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -2053,35 +2334,33 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="13.8">
-      <c r="A6" s="28">
-        <f>SUM(C6:F6)</f>
+    <row r="6" spans="1:26" ht="13.2">
+      <c r="A6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="22">
-        <v>1</v>
-      </c>
-      <c r="C6" s="29">
-        <f>15+(5*B6)</f>
-        <v>20</v>
-      </c>
-      <c r="D6" s="7">
-        <f>A4*(B6+3)</f>
-        <v>-4</v>
-      </c>
-      <c r="E6" s="7">
-        <f>C4*(B6+3)</f>
-        <v>4</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="18" t="s">
+      <c r="B6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="C6" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="5"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -2099,33 +2378,35 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" ht="13.8">
-      <c r="A7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="7"/>
+    <row r="7" spans="1:26" ht="13.2">
+      <c r="A7" s="31">
+        <f>SUM(C7:F7)</f>
+        <v>20</v>
+      </c>
+      <c r="B7" s="20">
+        <v>1</v>
+      </c>
+      <c r="C7" s="19">
+        <f>15+(5*B7)</f>
+        <v>20</v>
+      </c>
+      <c r="D7" s="5">
+        <f>A4*(B7+3)</f>
+        <v>-4</v>
+      </c>
+      <c r="E7" s="5">
+        <f>B4*(B7+3)</f>
+        <v>4</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -2144,34 +2425,32 @@
       <c r="Z7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="13.2">
-      <c r="A8" s="28">
-        <f>SUM(C8:F8)</f>
+      <c r="A8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="22">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <f>15+(5*B8)</f>
-        <v>15</v>
-      </c>
-      <c r="D8" s="7">
-        <f>D4*(B8+3)</f>
-        <v>12</v>
-      </c>
-      <c r="E8" s="7">
-        <f>E4*(B8+3)</f>
-        <v>3</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="7"/>
+      <c r="D8" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -2189,31 +2468,35 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="22.8">
-      <c r="A9" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="85">
-        <f>A6-B10</f>
-        <v>20</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="86">
-        <f>A8-D10</f>
+    <row r="9" spans="1:26" ht="13.2">
+      <c r="A9" s="31">
+        <f>SUM(C9:F9)</f>
         <v>30</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="17" t="b">
+      <c r="B9" s="20">
         <v>0</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="7"/>
+      <c r="C9" s="33">
+        <f>15+(5*B9)</f>
+        <v>15</v>
+      </c>
+      <c r="D9" s="5">
+        <f>D4*(B9+3)</f>
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <f>E4*(B9+3)</f>
+        <v>3</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -2231,21 +2514,27 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="13.2">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="35">
+        <f>A7-B11</f>
+        <v>20</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="37">
+        <f>A9-D11</f>
         <v>30</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="38"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="39"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -2265,27 +2554,21 @@
     </row>
     <row r="11" spans="1:26" ht="13.2">
       <c r="A11" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -2303,32 +2586,31 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26" ht="13.8">
-      <c r="A12" s="39">
-        <f>SUM(C12:F12)</f>
-        <v>1</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7">
-        <f t="shared" ref="D12:E12" si="0">A4</f>
-        <v>-1</v>
-      </c>
-      <c r="E12" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F12" s="43">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="7"/>
+    <row r="12" spans="1:26" ht="13.2">
+      <c r="A12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -2347,30 +2629,31 @@
       <c r="Z12" s="7"/>
     </row>
     <row r="13" spans="1:26" ht="13.2">
-      <c r="A13" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="7"/>
+      <c r="A13" s="47">
+        <f>SUM(C13:F13)</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <f>A4</f>
+        <v>-1</v>
+      </c>
+      <c r="E13" s="5">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="48"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -2388,30 +2671,31 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26" ht="13.8">
-      <c r="A14" s="39">
-        <f>SUM(C14:F14)</f>
-        <v>5</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7">
-        <f>D4</f>
-        <v>4</v>
-      </c>
-      <c r="E14" s="7">
-        <f>F4</f>
-        <v>1</v>
-      </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="7"/>
+    <row r="14" spans="1:26" ht="13.2">
+      <c r="A14" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -2429,33 +2713,30 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="13.8">
-      <c r="A15" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="17" t="b">
+    <row r="15" spans="1:26" ht="13.2">
+      <c r="A15" s="47">
+        <f>SUM(C15:F15)</f>
+        <v>5</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
+        <f>D4</f>
+        <v>4</v>
+      </c>
+      <c r="E15" s="5">
+        <f>F4</f>
         <v>1</v>
       </c>
-      <c r="I15" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="7"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="5"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -2473,32 +2754,33 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
     </row>
-    <row r="16" spans="1:26" ht="13.8">
-      <c r="A16" s="39">
-        <f>SUM(B16:F16)</f>
-        <v>12</v>
-      </c>
-      <c r="B16" s="44">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7">
-        <f t="shared" ref="D16:E16" si="1">B4</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="18" t="s">
+    <row r="16" spans="1:26" ht="13.2">
+      <c r="A16" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="D16" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -2517,32 +2799,31 @@
       <c r="Z16" s="7"/>
     </row>
     <row r="17" spans="1:26" ht="13.2">
-      <c r="A17" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="26" t="s">
+      <c r="A17" s="47">
+        <f>SUM(B17:F17)</f>
         <v>12</v>
       </c>
-      <c r="E17" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="7"/>
+      <c r="B17" s="50">
+        <v>10</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="51">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="48"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -2560,34 +2841,26 @@
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
     </row>
-    <row r="18" spans="1:26" ht="13.8">
-      <c r="A18" s="39">
-        <f>SUM(B18:F18)</f>
-        <v>13</v>
-      </c>
-      <c r="B18" s="44">
-        <v>10</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7">
-        <f t="shared" ref="D18:E18" si="2">E4</f>
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F18" s="43">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="7"/>
+    <row r="18" spans="1:26" ht="13.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="52">
+        <f>C17+D17+E17+F17</f>
+        <v>2</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -2606,24 +2879,28 @@
       <c r="Z18" s="7"/>
     </row>
     <row r="19" spans="1:26" ht="13.2">
-      <c r="A19" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="A19" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2640,26 +2917,29 @@
       <c r="Z19" s="7"/>
     </row>
     <row r="20" spans="1:26" ht="13.2">
-      <c r="A20" s="45">
-        <f>SUM(B20:C20)</f>
+      <c r="A20" s="47">
+        <f>SUM(B20:F20)</f>
+        <v>13</v>
+      </c>
+      <c r="B20" s="50">
+        <v>10</v>
+      </c>
+      <c r="C20" s="51">
         <v>1</v>
       </c>
-      <c r="B20" s="46">
-        <f>B4</f>
+      <c r="D20" s="51">
+        <f t="shared" ref="D20:E20" si="0">E4</f>
         <v>1</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="E20" s="51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="48"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2675,31 +2955,24 @@
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
     </row>
-    <row r="21" spans="1:26" ht="13.8">
-      <c r="A21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="48">
-        <f>D2+3</f>
-        <v>7</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+    <row r="21" spans="1:26" ht="13.2">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="52">
+        <f>C20+D20+E20+F20</f>
+        <v>3</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="54"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -2715,33 +2988,29 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
     </row>
-    <row r="22" spans="1:26" ht="13.8">
-      <c r="A22" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="18" t="s">
+    <row r="22" spans="1:26" ht="13.2">
+      <c r="A22" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="B22" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -2757,29 +3026,30 @@
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
     </row>
-    <row r="23" spans="1:26" ht="13.8">
-      <c r="A23" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="18" t="s">
+    <row r="23" spans="1:26" ht="13.2">
+      <c r="A23" s="57">
+        <f>SUM(B23:C23)</f>
+        <v>2</v>
+      </c>
+      <c r="B23" s="58">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="58">
+        <f>F4</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="H23" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2795,34 +3065,26 @@
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="1:26" ht="13.8">
-      <c r="A24" s="52">
-        <f>SUM(B24:E24)</f>
-        <v>2</v>
-      </c>
-      <c r="B24" s="55">
-        <v>2</v>
-      </c>
-      <c r="C24" s="7">
-        <f t="shared" ref="C24:D24" si="3">A4</f>
-        <v>-1</v>
-      </c>
-      <c r="D24" s="7">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E24" s="54"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+    <row r="24" spans="1:26" ht="13.2">
+      <c r="A24" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="64">
+        <f>D2+3</f>
+        <v>9</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2838,29 +3100,27 @@
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="1:26" ht="13.8">
-      <c r="A25" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="54"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+    <row r="25" spans="1:26" ht="13.2">
+      <c r="A25" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2876,32 +3136,23 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
     </row>
-    <row r="26" spans="1:26" ht="13.8">
-      <c r="A26" s="57">
-        <f>SUM(B26:E26)</f>
-        <v>2</v>
-      </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="3">
-        <f t="shared" ref="C26:D26" si="4">E4</f>
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+    <row r="26" spans="1:26" ht="13.2">
+      <c r="A26" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="70"/>
+      <c r="C26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="71"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2917,29 +3168,28 @@
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
     </row>
-    <row r="27" spans="1:26" ht="13.8">
-      <c r="A27" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+    <row r="27" spans="1:26" ht="13.2">
+      <c r="A27" s="69">
+        <f>SUM(B27:E27)</f>
+        <v>2</v>
+      </c>
+      <c r="B27" s="72">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5">
+        <f>A4</f>
+        <v>-1</v>
+      </c>
+      <c r="D27" s="5">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="71"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2956,22 +3206,22 @@
       <c r="Z27" s="7"/>
     </row>
     <row r="28" spans="1:26" ht="13.2">
-      <c r="A28" s="52">
-        <f>SUM(B28:E28)</f>
-        <v>0</v>
-      </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="7">
-        <f>A4</f>
-        <v>-1</v>
-      </c>
-      <c r="D28" s="7">
-        <f>C4</f>
-        <v>1</v>
-      </c>
-      <c r="E28" s="54"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="A28" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="70"/>
+      <c r="C28" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="71"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -2990,22 +3240,25 @@
       <c r="Z28" s="7"/>
     </row>
     <row r="29" spans="1:26" ht="13.2">
-      <c r="A29" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="A29" s="74">
+        <f>SUM(B29:E29)</f>
+        <v>2</v>
+      </c>
+      <c r="B29" s="72"/>
+      <c r="C29" s="33">
+        <f t="shared" ref="C29:D29" si="1">E4</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="71"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
@@ -3024,27 +3277,22 @@
       <c r="Z29" s="7"/>
     </row>
     <row r="30" spans="1:26" ht="13.2">
-      <c r="A30" s="52">
-        <f>SUM(B30:E30)</f>
-        <v>12</v>
-      </c>
-      <c r="B30" s="55">
+      <c r="A30" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="70"/>
+      <c r="C30" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="7">
-        <f>D4</f>
-        <v>4</v>
-      </c>
-      <c r="D30" s="58">
-        <f>F4</f>
-        <v>1</v>
-      </c>
-      <c r="E30" s="54"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="D30" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="71"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -3063,22 +3311,25 @@
       <c r="Z30" s="7"/>
     </row>
     <row r="31" spans="1:26" ht="13.2">
-      <c r="A31" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="54"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="A31" s="69">
+        <f>SUM(B31:E31)</f>
+        <v>0</v>
+      </c>
+      <c r="B31" s="72"/>
+      <c r="C31" s="5">
+        <f t="shared" ref="C31:D31" si="2">A4</f>
+        <v>-1</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="71"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
@@ -3097,27 +3348,22 @@
       <c r="Z31" s="7"/>
     </row>
     <row r="32" spans="1:26" ht="13.2">
-      <c r="A32" s="53">
-        <f>SUM(B32:E32)</f>
-        <v>5</v>
-      </c>
-      <c r="B32" s="55">
-        <v>3</v>
-      </c>
-      <c r="C32" s="7">
-        <f>C4</f>
-        <v>1</v>
-      </c>
-      <c r="D32" s="7">
-        <f>F4</f>
-        <v>1</v>
-      </c>
-      <c r="E32" s="54"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="A32" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="70"/>
+      <c r="C32" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="71"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
@@ -3136,22 +3382,27 @@
       <c r="Z32" s="7"/>
     </row>
     <row r="33" spans="1:26" ht="13.2">
-      <c r="A33" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="54"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
+      <c r="A33" s="69">
+        <f>SUM(B33:E33)</f>
+        <v>14</v>
+      </c>
+      <c r="B33" s="72">
+        <v>9</v>
+      </c>
+      <c r="C33" s="5">
+        <f>D4</f>
+        <v>4</v>
+      </c>
+      <c r="D33" s="76">
+        <f>F4</f>
+        <v>1</v>
+      </c>
+      <c r="E33" s="71"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
@@ -3170,25 +3421,22 @@
       <c r="Z33" s="7"/>
     </row>
     <row r="34" spans="1:26" ht="13.2">
-      <c r="A34" s="52">
-        <f>SUM(B34:E34)</f>
-        <v>5</v>
-      </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="7">
-        <f t="shared" ref="C34:D34" si="5">C4</f>
-        <v>1</v>
-      </c>
-      <c r="D34" s="7">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="E34" s="54"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
+      <c r="A34" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="70"/>
+      <c r="C34" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="71"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
@@ -3207,22 +3455,27 @@
       <c r="Z34" s="7"/>
     </row>
     <row r="35" spans="1:26" ht="13.2">
-      <c r="A35" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+      <c r="A35" s="70">
+        <f>SUM(B35:E35)</f>
+        <v>7</v>
+      </c>
+      <c r="B35" s="72">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
+        <f>F4</f>
+        <v>1</v>
+      </c>
+      <c r="E35" s="71"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
@@ -3241,27 +3494,22 @@
       <c r="Z35" s="7"/>
     </row>
     <row r="36" spans="1:26" ht="13.2">
-      <c r="A36" s="52">
-        <f>SUM(B36:E36)</f>
-        <v>7</v>
-      </c>
-      <c r="B36" s="55">
-        <v>2</v>
-      </c>
-      <c r="C36" s="7">
-        <f>B4</f>
-        <v>1</v>
-      </c>
-      <c r="D36" s="7">
-        <f>D4</f>
-        <v>4</v>
-      </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="A36" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="70"/>
+      <c r="C36" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="71"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
@@ -3280,22 +3528,25 @@
       <c r="Z36" s="7"/>
     </row>
     <row r="37" spans="1:26" ht="13.2">
-      <c r="A37" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+      <c r="A37" s="69">
+        <f>SUM(B37:E37)</f>
+        <v>5</v>
+      </c>
+      <c r="B37" s="72"/>
+      <c r="C37" s="5">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
+        <f>D4</f>
+        <v>4</v>
+      </c>
+      <c r="E37" s="71"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
@@ -3314,27 +3565,22 @@
       <c r="Z37" s="7"/>
     </row>
     <row r="38" spans="1:26" ht="13.2">
-      <c r="A38" s="52">
-        <f>SUM(B38:E38)</f>
+      <c r="A38" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="70"/>
+      <c r="C38" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="55">
-        <v>4</v>
-      </c>
-      <c r="C38" s="58">
-        <f t="shared" ref="C38:D38" si="6">D4</f>
-        <v>4</v>
-      </c>
-      <c r="D38" s="7">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
+      <c r="D38" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="71"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
@@ -3353,22 +3599,27 @@
       <c r="Z38" s="7"/>
     </row>
     <row r="39" spans="1:26" ht="13.2">
-      <c r="A39" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
+      <c r="A39" s="69">
+        <f>SUM(B39:E39)</f>
+        <v>7</v>
+      </c>
+      <c r="B39" s="72">
+        <v>2</v>
+      </c>
+      <c r="C39" s="5">
+        <f t="shared" ref="C39:D39" si="3">C4</f>
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="E39" s="71"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
@@ -3387,25 +3638,22 @@
       <c r="Z39" s="7"/>
     </row>
     <row r="40" spans="1:26" ht="13.2">
-      <c r="A40" s="52">
-        <f>SUM(B40:E40)</f>
-        <v>2</v>
-      </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="7">
-        <f t="shared" ref="C40:D40" si="7">E4</f>
-        <v>1</v>
-      </c>
-      <c r="D40" s="58">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+      <c r="A40" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="70"/>
+      <c r="C40" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="71"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
@@ -3424,22 +3672,27 @@
       <c r="Z40" s="7"/>
     </row>
     <row r="41" spans="1:26" ht="13.2">
-      <c r="A41" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
+      <c r="A41" s="69">
+        <f>SUM(B41:E41)</f>
+        <v>10</v>
+      </c>
+      <c r="B41" s="72">
+        <v>5</v>
+      </c>
+      <c r="C41" s="76">
+        <f t="shared" ref="C41:D41" si="4">D4</f>
+        <v>4</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E41" s="71"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
@@ -3458,25 +3711,22 @@
       <c r="Z41" s="7"/>
     </row>
     <row r="42" spans="1:26" ht="13.2">
-      <c r="A42" s="57">
-        <f>SUM(B42:E42)</f>
-        <v>5</v>
-      </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="3">
-        <f>B4</f>
-        <v>1</v>
-      </c>
-      <c r="D42" s="3">
-        <f>D4</f>
-        <v>4</v>
-      </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
+      <c r="A42" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="70"/>
+      <c r="C42" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="71"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
@@ -3495,22 +3745,25 @@
       <c r="Z42" s="7"/>
     </row>
     <row r="43" spans="1:26" ht="13.2">
-      <c r="A43" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="53"/>
-      <c r="C43" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
+      <c r="A43" s="69">
+        <f>SUM(B43:E43)</f>
+        <v>2</v>
+      </c>
+      <c r="B43" s="72"/>
+      <c r="C43" s="5">
+        <f t="shared" ref="C43:D43" si="5">E4</f>
+        <v>1</v>
+      </c>
+      <c r="D43" s="76">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="71"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
@@ -3529,25 +3782,22 @@
       <c r="Z43" s="7"/>
     </row>
     <row r="44" spans="1:26" ht="13.2">
-      <c r="A44" s="52">
-        <f>SUM(B44:E44)</f>
-        <v>2</v>
-      </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="7">
-        <f t="shared" ref="C44:D44" si="8">E4</f>
-        <v>1</v>
-      </c>
-      <c r="D44" s="58">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
+      <c r="A44" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="70"/>
+      <c r="C44" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="71"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
@@ -3566,22 +3816,25 @@
       <c r="Z44" s="7"/>
     </row>
     <row r="45" spans="1:26" ht="13.2">
-      <c r="A45" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
+      <c r="A45" s="74">
+        <f>SUM(B45:E45)</f>
+        <v>5</v>
+      </c>
+      <c r="B45" s="72"/>
+      <c r="C45" s="33">
+        <f t="shared" ref="C45:D45" si="6">C4</f>
+        <v>1</v>
+      </c>
+      <c r="D45" s="33">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="E45" s="71"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
@@ -3600,29 +3853,22 @@
       <c r="Z45" s="7"/>
     </row>
     <row r="46" spans="1:26" ht="13.2">
-      <c r="A46" s="52">
-        <f>SUM(B46:E46)</f>
-        <v>6</v>
-      </c>
-      <c r="B46" s="55">
-        <v>3</v>
-      </c>
-      <c r="C46" s="7">
-        <f>C4</f>
-        <v>1</v>
-      </c>
-      <c r="D46" s="7">
-        <f>E4</f>
-        <v>1</v>
-      </c>
-      <c r="E46" s="54">
-        <v>1</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
+      <c r="A46" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="70"/>
+      <c r="C46" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="71"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
@@ -3641,22 +3887,25 @@
       <c r="Z46" s="7"/>
     </row>
     <row r="47" spans="1:26" ht="13.2">
-      <c r="A47" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="53"/>
-      <c r="C47" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
+      <c r="A47" s="69">
+        <f>SUM(B47:E47)</f>
+        <v>2</v>
+      </c>
+      <c r="B47" s="72"/>
+      <c r="C47" s="5">
+        <f t="shared" ref="C47:D47" si="7">E4</f>
+        <v>1</v>
+      </c>
+      <c r="D47" s="76">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E47" s="71"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
@@ -3675,25 +3924,22 @@
       <c r="Z47" s="7"/>
     </row>
     <row r="48" spans="1:26" ht="13.2">
-      <c r="A48" s="52">
-        <f>SUM(B48:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="B48" s="55"/>
-      <c r="C48" s="7">
-        <f>A4</f>
-        <v>-1</v>
-      </c>
-      <c r="D48" s="58">
-        <f>F4</f>
-        <v>1</v>
-      </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
+      <c r="A48" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="70"/>
+      <c r="C48" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="71"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
@@ -3712,22 +3958,29 @@
       <c r="Z48" s="7"/>
     </row>
     <row r="49" spans="1:26" ht="13.2">
-      <c r="A49" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="53"/>
-      <c r="C49" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
+      <c r="A49" s="69">
+        <f>SUM(B49:E49)</f>
+        <v>6</v>
+      </c>
+      <c r="B49" s="72">
+        <v>3</v>
+      </c>
+      <c r="C49" s="5">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="D49" s="5">
+        <f>E4</f>
+        <v>1</v>
+      </c>
+      <c r="E49" s="71">
+        <v>1</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
@@ -3746,25 +3999,22 @@
       <c r="Z49" s="7"/>
     </row>
     <row r="50" spans="1:26" ht="13.2">
-      <c r="A50" s="52">
-        <f>SUM(B50:E50)</f>
-        <v>5</v>
-      </c>
-      <c r="B50" s="55"/>
-      <c r="C50" s="58">
-        <f>D4</f>
-        <v>4</v>
-      </c>
-      <c r="D50" s="58">
-        <f>F4</f>
-        <v>1</v>
-      </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
+      <c r="A50" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="70"/>
+      <c r="C50" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="71"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
@@ -3783,22 +4033,25 @@
       <c r="Z50" s="7"/>
     </row>
     <row r="51" spans="1:26" ht="13.2">
-      <c r="A51" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" s="53"/>
-      <c r="C51" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
+      <c r="A51" s="69">
+        <f>SUM(B51:E51)</f>
+        <v>0</v>
+      </c>
+      <c r="B51" s="72"/>
+      <c r="C51" s="5">
+        <f>A4</f>
+        <v>-1</v>
+      </c>
+      <c r="D51" s="76">
+        <f>F4</f>
+        <v>1</v>
+      </c>
+      <c r="E51" s="71"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
@@ -3817,25 +4070,22 @@
       <c r="Z51" s="7"/>
     </row>
     <row r="52" spans="1:26" ht="13.2">
-      <c r="A52" s="52">
-        <f>SUM(B52:E52)</f>
-        <v>5</v>
-      </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="58">
-        <f>D4</f>
-        <v>4</v>
-      </c>
-      <c r="D52" s="7">
-        <f>F4</f>
-        <v>1</v>
-      </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
+      <c r="A52" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="70"/>
+      <c r="C52" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="71"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
@@ -3854,22 +4104,25 @@
       <c r="Z52" s="7"/>
     </row>
     <row r="53" spans="1:26" ht="13.2">
-      <c r="A53" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" s="53"/>
-      <c r="C53" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
+      <c r="A53" s="69">
+        <f>SUM(B53:E53)</f>
+        <v>5</v>
+      </c>
+      <c r="B53" s="72"/>
+      <c r="C53" s="76">
+        <f>D4</f>
+        <v>4</v>
+      </c>
+      <c r="D53" s="76">
+        <f>F4</f>
+        <v>1</v>
+      </c>
+      <c r="E53" s="71"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
@@ -3888,27 +4141,22 @@
       <c r="Z53" s="7"/>
     </row>
     <row r="54" spans="1:26" ht="13.2">
-      <c r="A54" s="52">
-        <f>SUM(B54:E54)</f>
+      <c r="A54" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="70"/>
+      <c r="C54" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="55">
-        <v>7</v>
-      </c>
-      <c r="C54" s="7">
-        <f>B4</f>
-        <v>1</v>
-      </c>
-      <c r="D54" s="58">
-        <f>D4</f>
-        <v>4</v>
-      </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
@@ -3927,22 +4175,27 @@
       <c r="Z54" s="7"/>
     </row>
     <row r="55" spans="1:26" ht="13.2">
-      <c r="A55" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="B55" s="53"/>
-      <c r="C55" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="54"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
+      <c r="A55" s="69">
+        <f>SUM(B55:E55)</f>
+        <v>6</v>
+      </c>
+      <c r="B55" s="72"/>
+      <c r="C55" s="76">
+        <f>D4</f>
+        <v>4</v>
+      </c>
+      <c r="D55" s="5">
+        <f>F4</f>
+        <v>1</v>
+      </c>
+      <c r="E55" s="71">
+        <v>1</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
@@ -3961,25 +4214,22 @@
       <c r="Z55" s="7"/>
     </row>
     <row r="56" spans="1:26" ht="13.2">
-      <c r="A56" s="52">
-        <f>SUM(B56:E56)</f>
-        <v>2</v>
-      </c>
-      <c r="B56" s="55"/>
-      <c r="C56" s="7">
-        <f>B4</f>
-        <v>1</v>
-      </c>
-      <c r="D56" s="7">
-        <f>E4</f>
-        <v>1</v>
-      </c>
-      <c r="E56" s="54"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
+      <c r="A56" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="70"/>
+      <c r="C56" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="71"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
@@ -3998,22 +4248,27 @@
       <c r="Z56" s="7"/>
     </row>
     <row r="57" spans="1:26" ht="13.2">
-      <c r="A57" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="53"/>
-      <c r="C57" s="26" t="s">
+      <c r="A57" s="69">
+        <f>SUM(B57:E57)</f>
+        <v>14</v>
+      </c>
+      <c r="B57" s="72">
         <v>9</v>
       </c>
-      <c r="D57" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="54"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
+      <c r="C57" s="5">
+        <f t="shared" ref="C57:D57" si="8">C4</f>
+        <v>1</v>
+      </c>
+      <c r="D57" s="76">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="E57" s="71"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
@@ -4032,25 +4287,22 @@
       <c r="Z57" s="7"/>
     </row>
     <row r="58" spans="1:26" ht="13.2">
-      <c r="A58" s="52">
-        <f>SUM(B58:E58)</f>
-        <v>5</v>
-      </c>
-      <c r="B58" s="55"/>
-      <c r="C58" s="7">
-        <f>B4</f>
-        <v>1</v>
-      </c>
-      <c r="D58" s="58">
-        <f>D4</f>
-        <v>4</v>
-      </c>
-      <c r="E58" s="54"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
+      <c r="A58" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="70"/>
+      <c r="C58" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="71"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
@@ -4069,22 +4321,25 @@
       <c r="Z58" s="7"/>
     </row>
     <row r="59" spans="1:26" ht="13.2">
-      <c r="A59" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="B59" s="53"/>
-      <c r="C59" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="54"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
+      <c r="A59" s="69">
+        <f>SUM(B59:E59)</f>
+        <v>2</v>
+      </c>
+      <c r="B59" s="72"/>
+      <c r="C59" s="5">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="D59" s="5">
+        <f>E4</f>
+        <v>1</v>
+      </c>
+      <c r="E59" s="71"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
@@ -4103,27 +4358,22 @@
       <c r="Z59" s="7"/>
     </row>
     <row r="60" spans="1:26" ht="13.2">
-      <c r="A60" s="52">
-        <f>SUM(B60:E60)</f>
-        <v>12</v>
-      </c>
-      <c r="B60" s="55">
-        <v>7</v>
-      </c>
-      <c r="C60" s="7">
-        <f>B4</f>
-        <v>1</v>
-      </c>
-      <c r="D60" s="58">
-        <f>D4</f>
-        <v>4</v>
-      </c>
-      <c r="E60" s="54"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
+      <c r="A60" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="70"/>
+      <c r="C60" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="71"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
@@ -4142,22 +4392,25 @@
       <c r="Z60" s="7"/>
     </row>
     <row r="61" spans="1:26" ht="13.2">
-      <c r="A61" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="B61" s="53"/>
-      <c r="C61" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="54"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
+      <c r="A61" s="69">
+        <f>SUM(B61:E61)</f>
+        <v>5</v>
+      </c>
+      <c r="B61" s="72"/>
+      <c r="C61" s="5">
+        <f t="shared" ref="C61:D61" si="9">C4</f>
+        <v>1</v>
+      </c>
+      <c r="D61" s="76">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="E61" s="71"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
@@ -4176,25 +4429,22 @@
       <c r="Z61" s="7"/>
     </row>
     <row r="62" spans="1:26" ht="13.2">
-      <c r="A62" s="53">
-        <f>SUM(B62:D62)</f>
-        <v>5</v>
-      </c>
-      <c r="B62" s="55"/>
-      <c r="C62" s="7">
-        <f t="shared" ref="C62:D62" si="9">D4</f>
-        <v>4</v>
-      </c>
-      <c r="D62" s="7">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E62" s="54"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
+      <c r="A62" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="70"/>
+      <c r="C62" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="71"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
@@ -4213,22 +4463,27 @@
       <c r="Z62" s="7"/>
     </row>
     <row r="63" spans="1:26" ht="13.2">
-      <c r="A63" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B63" s="53"/>
-      <c r="C63" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="54"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
+      <c r="A63" s="69">
+        <f>B63+C63+D63</f>
+        <v>14</v>
+      </c>
+      <c r="B63" s="72">
+        <v>9</v>
+      </c>
+      <c r="C63" s="33">
+        <f>D4</f>
+        <v>4</v>
+      </c>
+      <c r="D63" s="33">
+        <f>F4</f>
+        <v>1</v>
+      </c>
+      <c r="E63" s="71"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
@@ -4247,25 +4502,22 @@
       <c r="Z63" s="7"/>
     </row>
     <row r="64" spans="1:26" ht="13.2">
-      <c r="A64" s="52">
-        <f>SUM(B64:E64)</f>
-        <v>5</v>
-      </c>
-      <c r="B64" s="55"/>
-      <c r="C64" s="7">
-        <f>D4</f>
-        <v>4</v>
-      </c>
-      <c r="D64" s="7">
-        <f>F4</f>
-        <v>1</v>
-      </c>
-      <c r="E64" s="54"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
+      <c r="A64" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="70"/>
+      <c r="C64" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="71"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
@@ -4284,22 +4536,27 @@
       <c r="Z64" s="7"/>
     </row>
     <row r="65" spans="1:26" ht="13.2">
-      <c r="A65" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" s="53"/>
-      <c r="C65" s="26" t="s">
+      <c r="A65" s="69">
+        <f>SUM(B65:E65)</f>
+        <v>14</v>
+      </c>
+      <c r="B65" s="72">
         <v>9</v>
       </c>
-      <c r="D65" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="59"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
+      <c r="C65" s="5">
+        <f t="shared" ref="C65:D65" si="10">C4</f>
+        <v>1</v>
+      </c>
+      <c r="D65" s="76">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="E65" s="71"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
@@ -4318,25 +4575,22 @@
       <c r="Z65" s="7"/>
     </row>
     <row r="66" spans="1:26" ht="13.2">
-      <c r="A66" s="60">
-        <f>SUM(B66:E66)</f>
-        <v>5</v>
-      </c>
-      <c r="B66" s="61"/>
-      <c r="C66" s="46">
-        <f>B4</f>
-        <v>1</v>
-      </c>
-      <c r="D66" s="46">
-        <f>D4</f>
-        <v>4</v>
-      </c>
-      <c r="E66" s="62"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
+      <c r="A66" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="70"/>
+      <c r="C66" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="71"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
@@ -4355,21 +4609,25 @@
       <c r="Z66" s="7"/>
     </row>
     <row r="67" spans="1:26" ht="13.2">
-      <c r="A67" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67" s="44">
-        <f>SUM(B23:B66)</f>
-        <v>35</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
+      <c r="A67" s="70">
+        <f>SUM(B67:D67)</f>
+        <v>5</v>
+      </c>
+      <c r="B67" s="72"/>
+      <c r="C67" s="5">
+        <f t="shared" ref="C67:D67" si="11">D4</f>
+        <v>4</v>
+      </c>
+      <c r="D67" s="5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E67" s="71"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
@@ -4388,25 +4646,22 @@
       <c r="Z67" s="7"/>
     </row>
     <row r="68" spans="1:26" ht="13.2">
-      <c r="A68" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68" s="65"/>
-      <c r="D68" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="E68" s="66">
-        <f>D2+3</f>
-        <v>7</v>
-      </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
+      <c r="A68" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="70"/>
+      <c r="C68" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="71"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
@@ -4425,26 +4680,25 @@
       <c r="Z68" s="7"/>
     </row>
     <row r="69" spans="1:26" ht="13.2">
-      <c r="A69" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B69" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E69" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
+      <c r="A69" s="69">
+        <f>SUM(B69:E69)</f>
+        <v>5</v>
+      </c>
+      <c r="B69" s="72"/>
+      <c r="C69" s="5">
+        <f>D4</f>
+        <v>4</v>
+      </c>
+      <c r="D69" s="5">
+        <f>F4</f>
+        <v>1</v>
+      </c>
+      <c r="E69" s="71"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
@@ -4463,21 +4717,22 @@
       <c r="Z69" s="7"/>
     </row>
     <row r="70" spans="1:26" ht="13.2">
-      <c r="A70" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="68"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
+      <c r="A70" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" s="70"/>
+      <c r="C70" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="71"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
@@ -4496,27 +4751,25 @@
       <c r="Z70" s="7"/>
     </row>
     <row r="71" spans="1:26" ht="13.2">
-      <c r="A71" s="3">
+      <c r="A71" s="78">
         <f>SUM(B71:E71)</f>
-        <v>12</v>
-      </c>
-      <c r="B71">
-        <v>7</v>
-      </c>
-      <c r="C71" s="3">
-        <f t="shared" ref="C71:D71" si="10">D4</f>
+        <v>5</v>
+      </c>
+      <c r="B71" s="79"/>
+      <c r="C71" s="58">
+        <f t="shared" ref="C71:D71" si="12">C4</f>
+        <v>1</v>
+      </c>
+      <c r="D71" s="58">
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="D71" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E71" s="68"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
@@ -4535,21 +4788,21 @@
       <c r="Z71" s="7"/>
     </row>
     <row r="72" spans="1:26" ht="13.2">
-      <c r="A72" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="68"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
+      <c r="A72" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="50">
+        <f>SUM(B26:B71)</f>
+        <v>53</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
@@ -4568,27 +4821,23 @@
       <c r="Z72" s="7"/>
     </row>
     <row r="73" spans="1:26" ht="13.2">
-      <c r="A73" s="3">
-        <f>SUM(B73:E73)</f>
+      <c r="A73" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" s="82"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="E73" s="85">
+        <f>D2+3</f>
         <v>9</v>
       </c>
-      <c r="B73">
-        <v>7</v>
-      </c>
-      <c r="C73" s="3">
-        <f t="shared" ref="C73:D73" si="11">E4</f>
-        <v>1</v>
-      </c>
-      <c r="D73" s="3">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E73" s="68"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
@@ -4607,21 +4856,26 @@
       <c r="Z73" s="7"/>
     </row>
     <row r="74" spans="1:26" ht="13.2">
-      <c r="A74" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="68"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
+      <c r="A74" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E74" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
@@ -4640,27 +4894,22 @@
       <c r="Z74" s="7"/>
     </row>
     <row r="75" spans="1:26" ht="13.2">
-      <c r="A75" s="3">
-        <f>SUM(B75:E75)</f>
-        <v>6</v>
-      </c>
-      <c r="B75">
-        <v>4</v>
-      </c>
-      <c r="C75" s="3">
-        <f t="shared" ref="C75:D75" si="12">E4</f>
-        <v>1</v>
-      </c>
-      <c r="D75" s="3">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="E75" s="68"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
+      <c r="A75" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="33"/>
+      <c r="C75" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="87"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
@@ -4679,22 +4928,27 @@
       <c r="Z75" s="7"/>
     </row>
     <row r="76" spans="1:26" ht="13.2">
-      <c r="A76" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="24" t="s">
+      <c r="A76" s="33">
+        <f>SUM(B76:E76)</f>
+        <v>14</v>
+      </c>
+      <c r="B76" s="33">
         <v>9</v>
       </c>
-      <c r="D76" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="69"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
+      <c r="C76" s="33">
+        <f t="shared" ref="C76:D76" si="13">D4</f>
+        <v>4</v>
+      </c>
+      <c r="D76" s="33">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E76" s="87"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
@@ -4713,25 +4967,22 @@
       <c r="Z76" s="7"/>
     </row>
     <row r="77" spans="1:26" ht="13.2">
-      <c r="A77" s="7">
-        <f>SUM(B77:E77)</f>
-        <v>5</v>
-      </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7">
-        <f>B4</f>
-        <v>1</v>
-      </c>
-      <c r="D77" s="7">
-        <f>D4</f>
-        <v>4</v>
-      </c>
-      <c r="E77" s="69"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
+      <c r="A77" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="33"/>
+      <c r="C77" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="87"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
@@ -4750,22 +5001,27 @@
       <c r="Z77" s="7"/>
     </row>
     <row r="78" spans="1:26" ht="13.2">
-      <c r="A78" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="24" t="s">
+      <c r="A78" s="33">
+        <f>SUM(B78:E78)</f>
+        <v>11</v>
+      </c>
+      <c r="B78" s="33">
         <v>9</v>
       </c>
-      <c r="D78" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="69"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
+      <c r="C78" s="33">
+        <f t="shared" ref="C78:D78" si="14">E4</f>
+        <v>1</v>
+      </c>
+      <c r="D78" s="33">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E78" s="87"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
@@ -4784,25 +5040,22 @@
       <c r="Z78" s="7"/>
     </row>
     <row r="79" spans="1:26" ht="13.2">
-      <c r="A79" s="7">
-        <f>SUM(B79:E79)</f>
-        <v>5</v>
-      </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7">
-        <f>B4</f>
-        <v>1</v>
-      </c>
-      <c r="D79" s="7">
-        <f>D4</f>
-        <v>4</v>
-      </c>
-      <c r="E79" s="69"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
+      <c r="A79" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" s="33"/>
+      <c r="C79" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="87"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
@@ -4821,22 +5074,27 @@
       <c r="Z79" s="7"/>
     </row>
     <row r="80" spans="1:26" ht="13.2">
-      <c r="A80" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="69"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
+      <c r="A80" s="33">
+        <f>SUM(B80:E80)</f>
+        <v>6</v>
+      </c>
+      <c r="B80" s="33">
+        <v>4</v>
+      </c>
+      <c r="C80" s="33">
+        <f t="shared" ref="C80:D80" si="15">E4</f>
+        <v>1</v>
+      </c>
+      <c r="D80" s="33">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E80" s="87"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
@@ -4855,25 +5113,22 @@
       <c r="Z80" s="7"/>
     </row>
     <row r="81" spans="1:26" ht="13.2">
-      <c r="A81" s="7">
-        <f>SUM(B81:E81)</f>
-        <v>5</v>
-      </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7">
-        <f t="shared" ref="C81:D81" si="13">C4</f>
-        <v>1</v>
-      </c>
-      <c r="D81" s="7">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="E81" s="69"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
+      <c r="A81" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="88"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
@@ -4892,22 +5147,25 @@
       <c r="Z81" s="7"/>
     </row>
     <row r="82" spans="1:26" ht="13.2">
-      <c r="A82" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="69"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
+      <c r="A82" s="5">
+        <f>SUM(B82:E82)</f>
+        <v>5</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5">
+        <f t="shared" ref="C82:D82" si="16">C4</f>
+        <v>1</v>
+      </c>
+      <c r="D82" s="5">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="E82" s="88"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
@@ -4926,27 +5184,22 @@
       <c r="Z82" s="7"/>
     </row>
     <row r="83" spans="1:26" ht="13.2">
-      <c r="A83" s="7">
-        <f>SUM(B83:E83)</f>
-        <v>4</v>
-      </c>
-      <c r="B83" s="7">
-        <v>2</v>
-      </c>
-      <c r="C83" s="7">
-        <f>B4</f>
-        <v>1</v>
-      </c>
-      <c r="D83" s="7">
-        <f>E4</f>
-        <v>1</v>
-      </c>
-      <c r="E83" s="69"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
+      <c r="A83" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="88"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
@@ -4965,22 +5218,25 @@
       <c r="Z83" s="7"/>
     </row>
     <row r="84" spans="1:26" ht="13.2">
-      <c r="A84" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="69"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
+      <c r="A84" s="5">
+        <f>SUM(B84:E84)</f>
+        <v>5</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5">
+        <f t="shared" ref="C84:D84" si="17">C4</f>
+        <v>1</v>
+      </c>
+      <c r="D84" s="5">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="E84" s="88"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
@@ -4999,25 +5255,22 @@
       <c r="Z84" s="7"/>
     </row>
     <row r="85" spans="1:26" ht="13.2">
-      <c r="A85" s="7">
-        <f>SUM(B85:E85)</f>
-        <v>0</v>
-      </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7">
-        <f>A4</f>
-        <v>-1</v>
-      </c>
-      <c r="D85" s="7">
-        <f>C4</f>
-        <v>1</v>
-      </c>
-      <c r="E85" s="69"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
+      <c r="A85" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="88"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
@@ -5036,22 +5289,25 @@
       <c r="Z85" s="7"/>
     </row>
     <row r="86" spans="1:26" ht="13.2">
-      <c r="A86" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="69"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
+      <c r="A86" s="5">
+        <f>SUM(B86:E86)</f>
+        <v>5</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="D86" s="5">
+        <f>D4</f>
+        <v>4</v>
+      </c>
+      <c r="E86" s="88"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
@@ -5070,25 +5326,22 @@
       <c r="Z86" s="7"/>
     </row>
     <row r="87" spans="1:26" ht="13.2">
-      <c r="A87" s="7">
-        <f>SUM(B87:E87)</f>
-        <v>5</v>
-      </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7">
-        <f t="shared" ref="C87:D87" si="14">C4</f>
-        <v>1</v>
-      </c>
-      <c r="D87" s="7">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="E87" s="69"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
+      <c r="A87" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="88"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
@@ -5107,21 +5360,27 @@
       <c r="Z87" s="7"/>
     </row>
     <row r="88" spans="1:26" ht="13.2">
-      <c r="A88" s="77" t="s">
-        <v>96</v>
-      </c>
-      <c r="B88" s="70">
-        <f>SUM(B70:B87)</f>
-        <v>20</v>
-      </c>
-      <c r="C88" s="70"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
+      <c r="A88" s="5">
+        <f>SUM(B88:E88)</f>
+        <v>5</v>
+      </c>
+      <c r="B88" s="5">
+        <v>3</v>
+      </c>
+      <c r="C88" s="5">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="D88" s="5">
+        <f>E4</f>
+        <v>1</v>
+      </c>
+      <c r="E88" s="88"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
@@ -5140,16 +5399,22 @@
       <c r="Z88" s="7"/>
     </row>
     <row r="89" spans="1:26" ht="13.2">
-      <c r="A89" s="7"/>
-      <c r="B89" s="91"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
+      <c r="A89" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="88"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
@@ -5168,16 +5433,25 @@
       <c r="Z89" s="7"/>
     </row>
     <row r="90" spans="1:26" ht="13.2">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
+      <c r="A90" s="5">
+        <f>SUM(B90:E90)</f>
+        <v>0</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5">
+        <f t="shared" ref="C90:D90" si="18">A4</f>
+        <v>-1</v>
+      </c>
+      <c r="D90" s="5">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E90" s="88"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
@@ -5196,16 +5470,22 @@
       <c r="Z90" s="7"/>
     </row>
     <row r="91" spans="1:26" ht="13.2">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
+      <c r="A91" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="88"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
@@ -5224,16 +5504,25 @@
       <c r="Z91" s="7"/>
     </row>
     <row r="92" spans="1:26" ht="13.2">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
+      <c r="A92" s="5">
+        <f>SUM(B92:E92)</f>
+        <v>5</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="D92" s="5">
+        <f>D4</f>
+        <v>4</v>
+      </c>
+      <c r="E92" s="88"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
@@ -5252,16 +5541,21 @@
       <c r="Z92" s="7"/>
     </row>
     <row r="93" spans="1:26" ht="13.2">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
+      <c r="A93" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93" s="90">
+        <f>SUM(B75:B92)</f>
+        <v>25</v>
+      </c>
+      <c r="C93" s="90"/>
+      <c r="D93" s="90"/>
+      <c r="E93" s="91"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
@@ -5280,8 +5574,12 @@
       <c r="Z93" s="7"/>
     </row>
     <row r="94" spans="1:26" ht="13.2">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
+      <c r="A94" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B94" s="7">
+        <v>1</v>
+      </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -30677,7 +30975,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -30686,319 +30983,447 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="21.77734375" style="79" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" style="79"/>
-    <col min="5" max="5" width="15.44140625" style="79" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="80" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="80" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="80" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="83" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A1" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="99">
+        <f>SUM(C:C)</f>
+        <v>72</v>
+      </c>
+      <c r="F1" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="100">
+        <v>77</v>
+      </c>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A2" s="101" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="100">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A3" s="101" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="100">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="79">
-        <v>1</v>
-      </c>
-      <c r="C2" s="83">
+      <c r="I3" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A4" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="100">
+        <v>3</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="101" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A5" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="100">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A6" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="104" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="100">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A7" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="100">
+        <v>5</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A8" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="100">
         <v>2</v>
       </c>
-      <c r="D2" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="83" t="s">
-        <v>212</v>
-      </c>
-      <c r="F2" s="83" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="79">
-        <v>1</v>
-      </c>
-      <c r="C3" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="83" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="79">
-        <v>1</v>
-      </c>
-      <c r="C4" s="79" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="83" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="79">
-        <v>1</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="83" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A9" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="100">
+        <v>2</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A10" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="100">
+        <v>5</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A11" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="100">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A12" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="100">
+        <v>2</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A13" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="104" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="100">
+        <v>7</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A14" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="100">
+        <v>2</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A15" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="100">
+        <v>8</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A16" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="100">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A17" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="101" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="100">
+        <v>5</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A18" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="100">
+        <v>2</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A19" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="79">
-        <v>1</v>
-      </c>
-      <c r="C6" s="79" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="83" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="79" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="79">
-        <v>1</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="79" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="79" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="79" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="79" t="s">
-        <v>207</v>
-      </c>
-      <c r="F8" s="79" t="s">
-        <v>211</v>
-      </c>
-      <c r="G8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="79" t="s">
+      <c r="B19" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="100">
+        <v>3</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A20" s="101" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="79" t="s">
+      <c r="C20" s="100">
+        <v>9</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A21" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="100">
+        <v>2</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A22" s="101" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="79" t="s">
+      <c r="B22" s="102" t="s">
         <v>151</v>
       </c>
-      <c r="F11" s="79" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="79" t="s">
-        <v>153</v>
-      </c>
-      <c r="F12" s="79" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="F13" s="79" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A23" s="93" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="93" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A24" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="F24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A25" s="79" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="79">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="79">
-        <v>1</v>
-      </c>
-      <c r="D26" s="83" t="s">
-        <v>179</v>
-      </c>
-      <c r="F26" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A27" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="B27" s="94" t="s">
-        <v>170</v>
-      </c>
-      <c r="F27" s="75" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A28" s="83" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="95" t="s">
-        <v>178</v>
-      </c>
-      <c r="B29" s="95" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="83" t="s">
-        <v>186</v>
-      </c>
-      <c r="F29" s="75" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A30" s="79" t="s">
-        <v>205</v>
-      </c>
-      <c r="F30" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A31" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="B31" s="96" t="s">
-        <v>190</v>
-      </c>
-      <c r="D31" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="F31" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A32" s="83" t="s">
-        <v>204</v>
-      </c>
-      <c r="B32" s="97" t="s">
-        <v>193</v>
-      </c>
-      <c r="D32" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="F32" t="s">
-        <v>195</v>
-      </c>
+      <c r="C22" s="100">
+        <v>0</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A23" s="16"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A24" s="92"/>
+      <c r="B24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="93"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31007,249 +31432,597 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" style="90" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="79"/>
-    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="100"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="79" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="87" t="s">
+    <row r="1" spans="1:26" ht="13.2">
+      <c r="A1" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="80" t="s">
+      <c r="B1" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="82">
-        <f>SUM(C:C)</f>
-        <v>59</v>
-      </c>
-      <c r="G1" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="79">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="79">
-        <v>3</v>
-      </c>
-      <c r="D2" s="75" t="s">
+      <c r="E1" s="94" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="88" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="79">
-        <v>3</v>
-      </c>
-      <c r="D3" s="75" t="s">
+      <c r="F1" s="94" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="89" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="79">
-        <v>3</v>
-      </c>
-      <c r="D4" s="75" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="89" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="79">
-        <v>3</v>
-      </c>
-      <c r="D5" s="75" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="90" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="79">
-        <v>3</v>
-      </c>
-      <c r="D6" s="75" t="s">
+      <c r="G1" s="117" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A2" s="105" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="105" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="105" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2" s="105" t="s">
+        <v>235</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="105"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A3" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="105" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="105" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="105" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="105" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" s="105" t="s">
+        <v>234</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="105"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A4" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="105" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="105" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" s="105" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="100"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A5" s="105" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="75" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="79">
-        <v>5</v>
-      </c>
-      <c r="D7" s="75" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="75" t="s">
+      <c r="B5" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="105" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="105" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" s="105" t="s">
+        <v>233</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="100"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A6" s="105" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="105" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="105" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" s="105" t="s">
+        <v>233</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="100"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A7" s="100" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="100" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="75" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="90" t="s">
+      <c r="C7" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="79">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="90" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" s="79">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="75" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="75" t="s">
+      <c r="E7" s="100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>239</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="100"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A8" s="100" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="H8" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A9" s="100" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A10" s="100"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A11" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A12" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A13" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A14" s="100" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="100"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A15" s="100"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="F15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A16" s="100"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="F16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A17" s="100"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="F17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A18" s="100"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="F18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A19" s="100"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="F19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A20" s="100"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="F20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A21" s="100"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="F21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A22" s="100"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="F22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="F23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A24" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="109" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A25" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A26" s="113" t="s">
         <v>174</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B26" s="100">
+        <v>1</v>
+      </c>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="101" t="s">
+        <v>200</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A27" s="113" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="79">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="75" t="s">
-        <v>196</v>
-      </c>
-      <c r="B14" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="75" t="s">
+      <c r="B27" s="109" t="s">
         <v>199</v>
       </c>
-      <c r="B15" s="90" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="79">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="75" t="s">
-        <v>201</v>
-      </c>
-      <c r="B16" s="90" t="s">
+      <c r="C27" s="100"/>
+      <c r="D27" s="105" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="100"/>
+      <c r="F27" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A28" s="113" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="101" t="s">
+        <v>180</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A29" s="113" t="s">
         <v>202</v>
       </c>
-      <c r="C16" s="79">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B29" s="110" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" s="75" t="s">
+      <c r="C29" s="100"/>
+      <c r="D29" s="105" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="100"/>
+      <c r="F29" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A30" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A31" s="113" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="111" t="s">
         <v>207</v>
       </c>
-      <c r="C17" s="79">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>211</v>
-      </c>
+      <c r="C31" s="100"/>
+      <c r="D31" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="100"/>
+      <c r="F31" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A32" s="113" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" s="108" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="100"/>
+      <c r="D32" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32" s="100"/>
+      <c r="F32" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A33" s="113" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="101" t="s">
+        <v>190</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A34" s="100"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A35" s="100"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1">
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -31262,236 +32035,321 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="84" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="84" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="73"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="74"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="72"/>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A1" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" s="115" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="115" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.5546875" style="79"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="75" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" s="79" t="s">
-        <v>158</v>
-      </c>
-      <c r="I1" s="79" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="101" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="100" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" s="100" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="100" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="16">
+        <v>4</v>
+      </c>
+      <c r="B2" s="115" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="105" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="105" t="s">
         <v>159</v>
       </c>
-      <c r="J1" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="K1" s="79" t="s">
-        <v>161</v>
-      </c>
-      <c r="M1" s="92"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2">
+      <c r="F2" s="100" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="100">
+        <v>95</v>
+      </c>
+      <c r="J2" s="100">
+        <v>80</v>
+      </c>
+      <c r="K2" s="100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="115" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="115" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="100" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" s="100" t="s">
+        <v>223</v>
+      </c>
+      <c r="J4" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="K4" s="100" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="16">
+        <v>1</v>
+      </c>
+      <c r="B5" s="115" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="100">
+        <v>0</v>
+      </c>
+      <c r="J5" s="100">
+        <v>0</v>
+      </c>
+      <c r="K5" s="100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="16">
+        <v>1</v>
+      </c>
+      <c r="B6" s="115" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="16">
+        <v>1</v>
+      </c>
+      <c r="B7" s="115" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="16">
+        <v>1</v>
+      </c>
+      <c r="B8" s="115" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="16">
         <v>4</v>
       </c>
-      <c r="B2" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="79" t="s">
-        <v>117</v>
-      </c>
-      <c r="I2" s="79">
-        <v>202</v>
-      </c>
-      <c r="J2" s="79">
-        <v>2</v>
-      </c>
-      <c r="K2" s="79">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3">
+      <c r="B9" s="115" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="16"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="16"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="16"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="75" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4">
+      <c r="B13" s="115" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="101" t="s">
+        <v>230</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="75" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="75" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="75" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="75"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="75"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="F10" s="75" t="s">
-        <v>166</v>
-      </c>
+      <c r="B14" s="115" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="19.21875" style="79" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.5546875" style="79"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="83" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="83" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="83" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="83" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="83" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="79" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="95" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="83"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Winter">
-      <formula>NOT(ISERROR(SEARCH("Winter",B3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>